--- a/The_Ultimate_Mlops_Course_Notes.xlsx
+++ b/The_Ultimate_Mlops_Course_Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinesh\Documents\EDUCATION\YT_Ultimate_MLOPS_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F2B688-FF31-4101-BA21-C5CF00284D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5DD3F-5CFC-4F32-A747-416B39314510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6970A9FE-FAF6-41AB-A6FE-63023FD8FA41}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Day-1 Introduction to MLOPS</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Master/Main Branch</t>
+  </si>
+  <si>
+    <t>git restore --staged &lt;filename&gt;    -  For unstage / rollback to workspace</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F90280-370F-471B-B252-2A2942E4A4ED}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1124,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
